--- a/Selbsteinschaetzung.xlsx
+++ b/Selbsteinschaetzung.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kti\Documents\GitLab\PokerGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinstalderschule/Documents/Schule/Berufsschule/Semester_5/Cavuoti/PokerGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53A02C3-B4B6-449E-88F7-CD0ACFCD5780}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8CBF45-AAB5-E944-8DC6-655AA97D4F52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <r>
       <rPr>
@@ -623,7 +615,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -961,19 +953,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="112" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
     <col min="3" max="4" width="4.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -985,7 +977,7 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="3" spans="1:11" ht="28.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
@@ -1000,7 +992,7 @@
       <c r="J3" s="39"/>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1013,7 +1005,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1030,7 +1022,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1047,8 +1039,8 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
@@ -1081,8 +1073,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -1099,7 +1091,7 @@
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
     </row>
-    <row r="11" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1135,7 +1127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>1.2</v>
       </c>
@@ -1171,7 +1163,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>1.3</v>
       </c>
@@ -1207,7 +1199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>1.4</v>
       </c>
@@ -1243,7 +1235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>2</v>
       </c>
@@ -1260,7 +1252,7 @@
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
     </row>
-    <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>2.1</v>
       </c>
@@ -1279,7 +1271,7 @@
         <v>d</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" ref="F16:F20" si="5">IF(H16="x",1,IF(I16="x",2,IF(J16="x",3,IF(K16="x",4,0))))</f>
+        <f>IF(H16="x",1,IF(I16="x",2,IF(K16="x",3,IF(#REF!="x",4,0))))</f>
         <v>3</v>
       </c>
       <c r="G16" s="12">
@@ -1289,14 +1281,11 @@
       <c r="I16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="K16" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -1315,7 +1304,7 @@
         <v>d</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F16:F20" si="5">IF(H17="x",1,IF(I17="x",2,IF(J17="x",3,IF(K17="x",4,0))))</f>
         <v>4</v>
       </c>
       <c r="G17" s="12">
@@ -1332,7 +1321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -1368,7 +1357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>2.4</v>
       </c>
@@ -1387,7 +1376,7 @@
         <v>d</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="5"/>
+        <f>IF(H19="x",1,IF(I19="x",2,IF(K19="x",3,IF(#REF!="x",4,0))))</f>
         <v>3</v>
       </c>
       <c r="G19" s="12">
@@ -1397,14 +1386,11 @@
       <c r="I19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="K19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>2.5</v>
       </c>
@@ -1440,7 +1426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>3</v>
       </c>
@@ -1457,7 +1443,7 @@
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
     </row>
-    <row r="22" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>3.1</v>
       </c>
@@ -1494,7 +1480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>3.2</v>
       </c>
@@ -1532,7 +1518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>4</v>
       </c>
@@ -1549,7 +1535,7 @@
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
     </row>
-    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>4.0999999999999996</v>
       </c>
@@ -1586,7 +1572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>4.2</v>
       </c>
@@ -1622,7 +1608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>5</v>
       </c>
@@ -1639,7 +1625,7 @@
       <c r="J27" s="37"/>
       <c r="K27" s="37"/>
     </row>
-    <row r="28" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>5.0999999999999996</v>
       </c>
@@ -1674,7 +1660,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>5.2</v>
       </c>
@@ -1710,7 +1696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>5.2</v>
       </c>
@@ -1746,7 +1732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1759,7 +1745,7 @@
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1772,7 +1758,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -1784,7 +1770,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>36</v>
       </c>
@@ -1810,7 +1796,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -1822,7 +1808,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="18" t="s">
         <v>37</v>
       </c>
@@ -1844,7 +1830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
@@ -1856,7 +1842,7 @@
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="18" t="s">
         <v>38</v>
       </c>
@@ -1871,7 +1857,7 @@
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" s="18" t="s">
         <v>39</v>
       </c>
@@ -1886,7 +1872,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="18"/>
       <c r="D40" s="19"/>
       <c r="F40" s="19"/>
@@ -1896,7 +1882,7 @@
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="18" t="s">
         <v>40</v>
       </c>
@@ -1911,7 +1897,7 @@
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="18" t="s">
         <v>41</v>
       </c>
@@ -1922,7 +1908,7 @@
       </c>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="18"/>
       <c r="D43" s="19"/>
       <c r="F43" s="19"/>
@@ -1932,7 +1918,7 @@
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="18" t="s">
         <v>42</v>
       </c>
@@ -1947,7 +1933,7 @@
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="18"/>
       <c r="D45" s="23"/>
       <c r="F45" s="23"/>
@@ -1957,7 +1943,7 @@
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="18" t="s">
         <v>43</v>
       </c>
@@ -1977,7 +1963,7 @@
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
         <v>44</v>
       </c>
@@ -1991,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="29" t="s">
         <v>10</v>
       </c>
@@ -2005,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="29" t="s">
         <v>11</v>
       </c>
@@ -2019,7 +2005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A50" s="29" t="s">
         <v>12</v>
       </c>
@@ -2033,7 +2019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
         <v>13</v>
       </c>
@@ -2047,7 +2033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="23" x14ac:dyDescent="0.2">
       <c r="A52" s="29"/>
       <c r="B52" s="30"/>
       <c r="C52" s="31"/>
@@ -2055,7 +2041,7 @@
       <c r="E52" s="31"/>
       <c r="F52" s="32"/>
     </row>
-    <row r="53" spans="1:6" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="23" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
       <c r="C53" s="35"/>
@@ -2089,6 +2075,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="9fe67c4c-6226-4c98-a283-7487a51f7ff8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010008E419CAC84B4B46BD92325A374FBE2F" ma:contentTypeVersion="1" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c12f0f5e4fe463a1b81adfa21c4c4bf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fe67c4c-6226-4c98-a283-7487a51f7ff8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8d3c74b95f1692f260daac07e6e489a" ns2:_="">
     <xsd:import namespace="9fe67c4c-6226-4c98-a283-7487a51f7ff8"/>
@@ -2214,14 +2208,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="9fe67c4c-6226-4c98-a283-7487a51f7ff8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A740E6-F9EF-440B-A165-6794DF5CA118}">
   <ds:schemaRefs>
@@ -2231,6 +2217,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98336791-4E20-427B-895D-90D9BDFDE8CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9fe67c4c-6226-4c98-a283-7487a51f7ff8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790F794A-B6BA-4691-9EC9-98B8C55CEE01}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2246,14 +2242,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98336791-4E20-427B-895D-90D9BDFDE8CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9fe67c4c-6226-4c98-a283-7487a51f7ff8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Selbsteinschaetzung.xlsx
+++ b/Selbsteinschaetzung.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinstalderschule/Documents/Schule/Berufsschule/Semester_5/Cavuoti/PokerGame/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kti\Documents\GitLab\PokerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8CBF45-AAB5-E944-8DC6-655AA97D4F52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BB3F23-2205-437F-93A4-8803A952EEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <r>
       <rPr>
@@ -615,7 +624,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -953,19 +962,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="112" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="112" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
     <col min="3" max="4" width="4.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -977,7 +986,7 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="28.2" x14ac:dyDescent="0.45">
       <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
@@ -992,7 +1001,7 @@
       <c r="J3" s="39"/>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1005,7 +1014,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1022,7 +1031,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1039,8 +1048,8 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.4">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
@@ -1073,8 +1082,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -1091,7 +1100,7 @@
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
     </row>
-    <row r="11" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1110,8 +1119,7 @@
         <v>d</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" ref="F11:F14" si="2">IF(H11="x",1,IF(I11="x",2,IF(J11="x",3,IF(K11="x",4,0))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="12">
         <v>1</v>
@@ -1120,14 +1128,11 @@
       <c r="I11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="K11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>1.2</v>
       </c>
@@ -1146,7 +1151,7 @@
         <v>d</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F11:F14" si="2">IF(H12="x",1,IF(I12="x",2,IF(J12="x",3,IF(K12="x",4,0))))</f>
         <v>4</v>
       </c>
       <c r="G12" s="12">
@@ -1163,7 +1168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>1.3</v>
       </c>
@@ -1182,8 +1187,7 @@
         <v>d</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="12">
         <v>1</v>
@@ -1192,14 +1196,11 @@
       <c r="I13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="K13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>1.4</v>
       </c>
@@ -1218,8 +1219,7 @@
         <v>d</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="12">
         <v>1</v>
@@ -1228,14 +1228,11 @@
       <c r="I14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="K14" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>2</v>
       </c>
@@ -1252,7 +1249,7 @@
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
     </row>
-    <row r="16" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>2.1</v>
       </c>
@@ -1271,8 +1268,7 @@
         <v>d</v>
       </c>
       <c r="F16" s="12">
-        <f>IF(H16="x",1,IF(I16="x",2,IF(K16="x",3,IF(#REF!="x",4,0))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="12">
         <v>1</v>
@@ -1285,7 +1281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -1304,7 +1300,7 @@
         <v>d</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" ref="F16:F20" si="5">IF(H17="x",1,IF(I17="x",2,IF(J17="x",3,IF(K17="x",4,0))))</f>
+        <f t="shared" ref="F17:F20" si="5">IF(H17="x",1,IF(I17="x",2,IF(J17="x",3,IF(K17="x",4,0))))</f>
         <v>4</v>
       </c>
       <c r="G17" s="12">
@@ -1321,7 +1317,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -1357,7 +1353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2.4</v>
       </c>
@@ -1376,8 +1372,7 @@
         <v>d</v>
       </c>
       <c r="F19" s="12">
-        <f>IF(H19="x",1,IF(I19="x",2,IF(K19="x",3,IF(#REF!="x",4,0))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="12">
         <v>1</v>
@@ -1390,7 +1385,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>2.5</v>
       </c>
@@ -1409,8 +1404,7 @@
         <v>d</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="12">
         <v>1</v>
@@ -1426,7 +1420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>3</v>
       </c>
@@ -1443,7 +1437,7 @@
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
     </row>
-    <row r="22" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>3.1</v>
       </c>
@@ -1463,8 +1457,7 @@
         <v>d</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" ref="F22:F23" si="9">IF(H22="x",1,IF(I22="x",2,IF(J22="x",3,IF(K22="x",4,0))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="12">
         <v>1</v>
@@ -1473,14 +1466,11 @@
         <v>16</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="13" t="s">
+      <c r="K22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K22" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>3.2</v>
       </c>
@@ -1499,8 +1489,7 @@
         <v>d</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" s="12">
         <v>1</v>
@@ -1508,17 +1497,14 @@
       <c r="H23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="J23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>4</v>
       </c>
@@ -1535,7 +1521,7 @@
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
     </row>
-    <row r="25" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>4.0999999999999996</v>
       </c>
@@ -1543,20 +1529,19 @@
         <v>30</v>
       </c>
       <c r="C25" s="11">
-        <f t="shared" ref="C25" si="10">4*G25</f>
+        <f t="shared" ref="C25" si="9">4*G25</f>
         <v>4</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" ref="D25:D26" si="11">IF(F25&gt;0,G25*4,0)</f>
+        <f t="shared" ref="D25:D26" si="10">IF(F25&gt;0,G25*4,0)</f>
         <v>4</v>
       </c>
       <c r="E25" s="11" t="str">
-        <f t="shared" ref="E25:E26" si="12">IF(F25&gt;0,"d","")</f>
+        <f t="shared" ref="E25:E26" si="11">IF(F25&gt;0,"d","")</f>
         <v>d</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" ref="F25:F26" si="13">IF(H25="x",1,IF(I25="x",2,IF(J25="x",3,IF(K25="x",4,0))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="12">
         <v>1</v>
@@ -1565,14 +1550,11 @@
         <v>16</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="13" t="s">
+      <c r="K25" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>4.2</v>
       </c>
@@ -1583,16 +1565,15 @@
         <v>4</v>
       </c>
       <c r="D26" s="11">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="E26" s="11" t="str">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="E26" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>d</v>
       </c>
       <c r="F26" s="12">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" s="12">
         <v>2</v>
@@ -1601,14 +1582,11 @@
         <v>16</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="13" t="s">
+      <c r="K26" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K26" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>5</v>
       </c>
@@ -1625,7 +1603,7 @@
       <c r="J27" s="37"/>
       <c r="K27" s="37"/>
     </row>
-    <row r="28" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>5.0999999999999996</v>
       </c>
@@ -1633,19 +1611,19 @@
         <v>33</v>
       </c>
       <c r="C28" s="11">
-        <f t="shared" ref="C28" si="14">4*G28</f>
+        <f t="shared" ref="C28" si="12">4*G28</f>
         <v>4</v>
       </c>
       <c r="D28" s="11">
-        <f t="shared" ref="D28:D30" si="15">IF(F28&gt;0,G28*4,0)</f>
+        <f t="shared" ref="D28:D30" si="13">IF(F28&gt;0,G28*4,0)</f>
         <v>4</v>
       </c>
       <c r="E28" s="11" t="str">
-        <f t="shared" ref="E28:E30" si="16">IF(F28&gt;0,"d","")</f>
+        <f t="shared" ref="E28:E30" si="14">IF(F28&gt;0,"d","")</f>
         <v>d</v>
       </c>
       <c r="F28" s="12">
-        <f t="shared" ref="F28:F30" si="17">IF(H28="x",1,IF(I28="x",2,IF(J28="x",3,IF(K28="x",4,0))))</f>
+        <f t="shared" ref="F28:F30" si="15">IF(H28="x",1,IF(I28="x",2,IF(J28="x",3,IF(K28="x",4,0))))</f>
         <v>4</v>
       </c>
       <c r="G28" s="12">
@@ -1660,7 +1638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>5.2</v>
       </c>
@@ -1671,15 +1649,15 @@
         <v>4</v>
       </c>
       <c r="D29" s="11">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="E29" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>d</v>
+      </c>
+      <c r="F29" s="12">
         <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="E29" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>d</v>
-      </c>
-      <c r="F29" s="12">
-        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="G29" s="12">
@@ -1696,7 +1674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>5.2</v>
       </c>
@@ -1707,15 +1685,15 @@
         <v>4</v>
       </c>
       <c r="D30" s="11">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="E30" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>d</v>
+      </c>
+      <c r="F30" s="12">
         <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="E30" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>d</v>
-      </c>
-      <c r="F30" s="12">
-        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="G30" s="12">
@@ -1732,7 +1710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1745,7 +1723,7 @@
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1758,7 +1736,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -1770,7 +1748,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
         <v>36</v>
       </c>
@@ -1783,12 +1761,12 @@
         <v>76</v>
       </c>
       <c r="E34" s="19">
-        <f t="shared" ref="E34:F34" si="18">SUM(E11:E30)</f>
+        <f t="shared" ref="E34:F34" si="16">SUM(E11:E30)</f>
         <v>0</v>
       </c>
       <c r="F34" s="19">
-        <f t="shared" si="18"/>
-        <v>53</v>
+        <f t="shared" si="16"/>
+        <v>64</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
@@ -1796,7 +1774,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -1808,7 +1786,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
         <v>37</v>
       </c>
@@ -1830,7 +1808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
@@ -1842,7 +1820,7 @@
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
         <v>38</v>
       </c>
@@ -1857,14 +1835,14 @@
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="19"/>
       <c r="F39" s="19">
         <f>F34</f>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
@@ -1872,7 +1850,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18"/>
       <c r="D40" s="19"/>
       <c r="F40" s="19"/>
@@ -1882,7 +1860,7 @@
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>40</v>
       </c>
@@ -1897,7 +1875,7 @@
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>41</v>
       </c>
@@ -1908,7 +1886,7 @@
       </c>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18"/>
       <c r="D43" s="19"/>
       <c r="F43" s="19"/>
@@ -1918,14 +1896,13 @@
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="19"/>
       <c r="F44" s="22">
-        <f>IF(D34&gt;0,ROUND(5/D34*F39+1,1),1)</f>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
@@ -1933,7 +1910,7 @@
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="18"/>
       <c r="D45" s="23"/>
       <c r="F45" s="23"/>
@@ -1943,19 +1920,19 @@
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C46" s="23">
         <f>5/F38*F39+1</f>
-        <v>5.140625</v>
+        <v>6</v>
       </c>
       <c r="D46" s="23"/>
       <c r="E46" s="19"/>
       <c r="F46" s="24">
         <f>ROUND(C46*2,0)/2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
@@ -1963,7 +1940,7 @@
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
         <v>44</v>
       </c>
@@ -1977,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>10</v>
       </c>
@@ -1991,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>11</v>
       </c>
@@ -2005,7 +1982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>12</v>
       </c>
@@ -2019,7 +1996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
         <v>13</v>
       </c>
@@ -2033,7 +2010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A52" s="29"/>
       <c r="B52" s="30"/>
       <c r="C52" s="31"/>
@@ -2041,7 +2018,7 @@
       <c r="E52" s="31"/>
       <c r="F52" s="32"/>
     </row>
-    <row r="53" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
       <c r="C53" s="35"/>
@@ -2066,23 +2043,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="9fe67c4c-6226-4c98-a283-7487a51f7ff8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010008E419CAC84B4B46BD92325A374FBE2F" ma:contentTypeVersion="1" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c12f0f5e4fe463a1b81adfa21c4c4bf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fe67c4c-6226-4c98-a283-7487a51f7ff8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8d3c74b95f1692f260daac07e6e489a" ns2:_="">
     <xsd:import namespace="9fe67c4c-6226-4c98-a283-7487a51f7ff8"/>
@@ -2208,10 +2168,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="9fe67c4c-6226-4c98-a283-7487a51f7ff8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A740E6-F9EF-440B-A165-6794DF5CA118}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790F794A-B6BA-4691-9EC9-98B8C55CEE01}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9fe67c4c-6226-4c98-a283-7487a51f7ff8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2227,19 +2214,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790F794A-B6BA-4691-9EC9-98B8C55CEE01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A740E6-F9EF-440B-A165-6794DF5CA118}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9fe67c4c-6226-4c98-a283-7487a51f7ff8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>